--- a/data/trans_dic/P27E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +498,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -556,7 +557,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +567,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>34,01%</t>
         </is>
       </c>
     </row>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,72; 38,51</t>
+          <t>21,05; 38,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,95; 49,19</t>
+          <t>31,41; 50,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>27,71; 40,77</t>
+          <t>27,3; 40,4</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>31,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>37,02%</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,73; 42,43</t>
+          <t>22,85; 43,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,2; 50,77</t>
+          <t>35,43; 50,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,94; 43,57</t>
+          <t>30,7; 44,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,19; 35,69</t>
+          <t>23,54; 36,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,01; 37,67</t>
+          <t>25,74; 37,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,47; 35,15</t>
+          <t>26,03; 34,99</t>
         </is>
       </c>
     </row>
@@ -706,7 +707,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>32,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,45; 39,73</t>
+          <t>25,41; 39,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,62; 39,78</t>
+          <t>27,06; 39,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,73; 37,69</t>
+          <t>28,02; 37,92</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 31,25</t>
+          <t>18,12; 31,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,63; 45,65</t>
+          <t>32,82; 45,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,84; 36,23</t>
+          <t>27,38; 36,76</t>
         </is>
       </c>
     </row>
@@ -811,12 +812,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,14%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>31,85%</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,18; 37,46</t>
+          <t>21,23; 37,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,72; 43,72</t>
+          <t>25,22; 42,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,66; 38,14</t>
+          <t>26,28; 38,87</t>
         </is>
       </c>
     </row>
@@ -866,7 +867,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>32,85%</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,24 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,22; 32,59</t>
+          <t>26,19; 32,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,28; 39,45</t>
+          <t>33,2; 39,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,56; 35,05</t>
+          <t>30,7; 35,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -906,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12037</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14995</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>27032</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8856; 16187</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11748; 18702</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21698; 32106</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15828</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>20113</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35940</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11398; 21594</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16725; 23906</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29803; 42732</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17620</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17102</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>34721</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14171; 21821</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13878; 20248</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29702; 39929</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18746</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>17495</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>36242</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14807; 23291</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14188; 20932</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>31017; 41976</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>10653</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18996</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>29649</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8060; 13910</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16009; 22426</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25531; 34284</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13446</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>21763</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>35209</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>9944; 17673</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16073; 27149</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>29051; 42970</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>88329</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>110465</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>198794</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>79036; 98740</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>100736; 120250</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>185818; 212990</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P27E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27E_R-Edad-trans_dic.xlsx
@@ -40,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,6 +53,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -485,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,12 +529,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -515,33 +549,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -551,6 +621,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -564,13 +640,31 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
+        <v>0.2124322868279668</v>
+      </c>
+      <c r="D4" s="5" t="n">
         <v>0.2860791356290437</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="E4" s="5" t="n">
+        <v>0.262093876004905</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3912186308925045</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>0.4009549747740631</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0.3902013672745093</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.3032444682726687</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>0.3401367931417812</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.3229936327185774</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
+        <v>0.1338015581624403</v>
+      </c>
+      <c r="D5" s="5" t="n">
         <v>0.2104916064034651</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="E5" s="5" t="n">
+        <v>0.1829285387385382</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.3123758624354109</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>0.3141326525744653</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0.3111257791748653</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.248856002196152</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>0.2730240962125345</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.2648971228450094</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
+        <v>0.3060488821970919</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>0.3847140276714808</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="E6" s="5" t="n">
+        <v>0.3534314594884474</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.4787260078605787</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>0.5000752297289695</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0.4786279578528562</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3720913892550682</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>0.4039791131948129</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.393225824693365</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +749,31 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
+        <v>0.2462696273107857</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>0.317329531770221</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="E7" s="5" t="n">
+        <v>0.2490120092218839</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.3320181310751283</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>0.4260713380517498</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0.4401754899443962</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.2862351742254631</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>0.3702037096911754</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3419719366896931</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
+        <v>0.1675293951303155</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <v>0.2285139696283812</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="E8" s="5" t="n">
+        <v>0.1706296220844655</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0.2632531260246264</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>0.3542975956288757</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0.3622569323941829</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.2307102241961629</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>0.3069841764763652</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.2845177741679625</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
+        <v>0.3323321207633363</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>0.4329399630961577</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="E9" s="5" t="n">
+        <v>0.3570734099888421</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4035610914277493</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>0.5064198701964914</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0.5132027063423212</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.3463714075155321</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>0.440157134813522</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.404587029289362</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +858,31 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
+        <v>0.3013152397501501</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>0.2926410353833043</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="E10" s="5" t="n">
+        <v>0.3749381992595806</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4047817543359949</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>0.3171829460645714</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="H10" s="5" t="n">
+        <v>0.4289812871185706</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.354487017564912</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>0.3042354310368596</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.4005972072267936</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
+        <v>0.2267758700609172</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>0.2353519010073955</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="E11" s="5" t="n">
+        <v>0.3037431672158256</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0.3539864503545372</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>0.2573892499761666</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="H11" s="5" t="n">
+        <v>0.360718259819971</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.308969505487526</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>0.2602508418802877</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.3502884461506792</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
+        <v>0.3685821316234248</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>0.3624167119970907</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="E12" s="5" t="n">
+        <v>0.4441042545969852</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.4649252848573445</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>0.375547305472241</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="H12" s="5" t="n">
+        <v>0.4921522656899788</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.397923333388977</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>0.3498653378297333</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.451415427228171</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +967,31 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
+        <v>0.261061225473912</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>0.3217250373477448</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="E13" s="5" t="n">
+        <v>0.3667866695145379</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.3690033085580904</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>0.3337042367508452</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="H13" s="5" t="n">
+        <v>0.3604896359688683</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.3152348232361505</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>0.3273985889180121</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3637368767594569</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
+        <v>0.2069797694248463</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>0.2541145162869655</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="E14" s="5" t="n">
+        <v>0.3025836424418292</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.3112781538531838</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>0.2706146351581098</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="H14" s="5" t="n">
+        <v>0.2952830203083771</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2794271666538994</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>0.2802004175567786</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.315016579182164</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
+        <v>0.3449975535885862</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>0.3997274294988355</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="E15" s="5" t="n">
+        <v>0.4361958334166456</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4245933883674519</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>0.3992647743036182</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="H15" s="5" t="n">
+        <v>0.4243386308270221</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.3655716631227924</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>0.3791977035647088</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4064229132184741</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +1076,31 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
+        <v>0.2635516660835627</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <v>0.239456843503579</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="E16" s="5" t="n">
+        <v>0.2866129978453557</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.3072969395685458</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>0.3895020110114291</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="H16" s="5" t="n">
+        <v>0.3269852466656593</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0.2858107719836269</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>0.3179257815882812</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.3071848607040321</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
+        <v>0.2030934033806735</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>0.1811866612144759</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="E17" s="5" t="n">
+        <v>0.2272060846912606</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.2394480999214531</v>
+      </c>
+      <c r="G17" s="5" t="n">
         <v>0.3282405452244186</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="H17" s="5" t="n">
+        <v>0.2639281620203757</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.2407757421130103</v>
+      </c>
+      <c r="J17" s="5" t="n">
         <v>0.2737670361110963</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>0.2593666948658959</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
+        <v>0.3351224510427162</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <v>0.3126820217164114</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="E18" s="5" t="n">
+        <v>0.3540294164728319</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.3820834803110917</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>0.4598209747219801</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="H18" s="5" t="n">
+        <v>0.3909318621760104</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.3352371210218731</v>
+      </c>
+      <c r="J18" s="5" t="n">
         <v>0.3676204841362115</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.3512319732605788</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +1185,31 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
+        <v>0.2547631553016237</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <v>0.2870686061439522</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="E19" s="5" t="n">
+        <v>0.241816231817289</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.3009246444398765</v>
+      </c>
+      <c r="G19" s="5" t="n">
         <v>0.3415326700200333</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="H19" s="5" t="n">
+        <v>0.3063893907915162</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.2806101060214664</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>0.3184595595246741</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.2790992786959378</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
+        <v>0.1924385758796896</v>
+      </c>
+      <c r="D20" s="5" t="n">
         <v>0.2122969186895737</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="E20" s="5" t="n">
+        <v>0.1775885380669909</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.2255946609073352</v>
+      </c>
+      <c r="G20" s="5" t="n">
         <v>0.2522296371580559</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="H20" s="5" t="n">
+        <v>0.2373852498613233</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>0.2295277510102872</v>
+      </c>
+      <c r="J20" s="5" t="n">
         <v>0.2627577788789784</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.2290476851933652</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
+        <v>0.3441480481100794</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>0.3773324783186891</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="E21" s="5" t="n">
+        <v>0.3292860094100415</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>0.3927589548327377</v>
+      </c>
+      <c r="G21" s="5" t="n">
         <v>0.4260582281361424</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="H21" s="5" t="n">
+        <v>0.4005278481869113</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.3376369447737897</v>
+      </c>
+      <c r="J21" s="5" t="n">
         <v>0.3886562764860155</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.3337803920417759</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +1294,31 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
+        <v>0.2592676630430277</v>
+      </c>
+      <c r="D22" s="5" t="n">
         <v>0.292717159819491</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="E22" s="5" t="n">
+        <v>0.3032973104924368</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.3514069179672609</v>
+      </c>
+      <c r="G22" s="5" t="n">
         <v>0.3640383575853264</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="H22" s="5" t="n">
+        <v>0.3724383905663546</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.3063664490696495</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>0.3284771043210154</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.3380180262521758</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
+        <v>0.229859382852096</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>0.2619208937117951</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="E23" s="5" t="n">
+        <v>0.2732419155414612</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.3247283036986052</v>
+      </c>
+      <c r="G23" s="5" t="n">
         <v>0.3319761746163342</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="H23" s="5" t="n">
+        <v>0.3436393575990213</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.2859718891037237</v>
+      </c>
+      <c r="J23" s="5" t="n">
         <v>0.3070362348597865</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.3182932570484642</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
+        <v>0.2919574876371578</v>
+      </c>
+      <c r="D24" s="5" t="n">
         <v>0.3272185426404861</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="E24" s="5" t="n">
+        <v>0.3373443284175274</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.3801208142313399</v>
+      </c>
+      <c r="G24" s="5" t="n">
         <v>0.3962856884002049</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="H24" s="5" t="n">
+        <v>0.4023112076884892</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.3281929870337926</v>
+      </c>
+      <c r="J24" s="5" t="n">
         <v>0.3519340502411473</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.3621586597752715</v>
       </c>
     </row>
     <row r="25">
@@ -945,11 +1399,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A22:A24"/>
@@ -965,7 +1422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -981,12 +1438,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 100,0%)</t>
+          <t>Población que ha utilizado algún servicio de urgencias por algún problema o enfermedad propia (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -995,33 +1458,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -1031,6 +1530,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1044,13 +1549,31 @@
         </is>
       </c>
       <c r="C4" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="E4" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="H4" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>76</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1584,31 @@
         </is>
       </c>
       <c r="C5" s="6" t="n">
+        <v>98192</v>
+      </c>
+      <c r="D5" s="6" t="n">
         <v>12037</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="E5" s="6" t="n">
+        <v>11157</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>186665</v>
+      </c>
+      <c r="G5" s="6" t="n">
         <v>14995</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="H5" s="6" t="n">
+        <v>15051</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>284856</v>
+      </c>
+      <c r="J5" s="6" t="n">
         <v>27032</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>26208</v>
       </c>
     </row>
     <row r="6">
@@ -1078,13 +1619,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
+        <v>61846</v>
+      </c>
+      <c r="D6" s="6" t="n">
         <v>8856</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="E6" s="6" t="n">
+        <v>7787</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>149046</v>
+      </c>
+      <c r="G6" s="6" t="n">
         <v>11748</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="H6" s="6" t="n">
+        <v>12001</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>233766</v>
+      </c>
+      <c r="J6" s="6" t="n">
         <v>21698</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>21494</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1654,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
+        <v>141463</v>
+      </c>
+      <c r="D7" s="6" t="n">
         <v>16187</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="E7" s="6" t="n">
+        <v>15045</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>228418</v>
+      </c>
+      <c r="G7" s="6" t="n">
         <v>18702</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="H7" s="6" t="n">
+        <v>18462</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>349529</v>
+      </c>
+      <c r="J7" s="6" t="n">
         <v>32106</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>31907</v>
       </c>
     </row>
     <row r="8">
@@ -1116,13 +1693,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="E8" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="G8" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="H8" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6" t="n">
         <v>105</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1133,13 +1728,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
+        <v>142697</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>15828</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="E9" s="6" t="n">
+        <v>12090</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>167937</v>
+      </c>
+      <c r="G9" s="6" t="n">
         <v>20113</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="H9" s="6" t="n">
+        <v>20231</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>310634</v>
+      </c>
+      <c r="J9" s="6" t="n">
         <v>35940</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>32321</v>
       </c>
     </row>
     <row r="10">
@@ -1150,13 +1763,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
+        <v>97072</v>
+      </c>
+      <c r="D10" s="6" t="n">
         <v>11398</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="E10" s="6" t="n">
+        <v>8285</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>133156</v>
+      </c>
+      <c r="G10" s="6" t="n">
         <v>16725</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="H10" s="6" t="n">
+        <v>16650</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>250376</v>
+      </c>
+      <c r="J10" s="6" t="n">
         <v>29803</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>26891</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1798,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
+        <v>192565</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>21594</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="E11" s="6" t="n">
+        <v>17337</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>204124</v>
+      </c>
+      <c r="G11" s="6" t="n">
         <v>23906</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="H11" s="6" t="n">
+        <v>23587</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>375897</v>
+      </c>
+      <c r="J11" s="6" t="n">
         <v>42732</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>38239</v>
       </c>
     </row>
     <row r="12">
@@ -1188,13 +1837,31 @@
         </is>
       </c>
       <c r="C12" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="E12" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="G12" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="H12" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="J12" s="6" t="n">
         <v>138</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -1205,13 +1872,31 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
+        <v>203774</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>17620</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="E13" s="6" t="n">
+        <v>22657</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>289406</v>
+      </c>
+      <c r="G13" s="6" t="n">
         <v>17102</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="H13" s="6" t="n">
+        <v>23434</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>493180</v>
+      </c>
+      <c r="J13" s="6" t="n">
         <v>34721</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>46092</v>
       </c>
     </row>
     <row r="14">
@@ -1222,13 +1907,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
+        <v>153365</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>14171</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="E14" s="6" t="n">
+        <v>18355</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>253089</v>
+      </c>
+      <c r="G14" s="6" t="n">
         <v>13878</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="H14" s="6" t="n">
+        <v>19705</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>429854</v>
+      </c>
+      <c r="J14" s="6" t="n">
         <v>29702</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>40303</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1942,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
+        <v>249266</v>
+      </c>
+      <c r="D15" s="6" t="n">
         <v>21821</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="E15" s="6" t="n">
+        <v>26837</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>332407</v>
+      </c>
+      <c r="G15" s="6" t="n">
         <v>20248</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="H15" s="6" t="n">
+        <v>26885</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>553611</v>
+      </c>
+      <c r="J15" s="6" t="n">
         <v>39929</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>51939</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1981,31 @@
         </is>
       </c>
       <c r="C16" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="D16" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="E16" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="G16" s="6" t="n">
         <v>76</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="H16" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>177</v>
+      </c>
+      <c r="J16" s="6" t="n">
         <v>134</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -1277,13 +2016,31 @@
         </is>
       </c>
       <c r="C17" s="6" t="n">
+        <v>171367</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>18746</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="E17" s="6" t="n">
+        <v>20905</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>244047</v>
+      </c>
+      <c r="G17" s="6" t="n">
         <v>17495</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="H17" s="6" t="n">
+        <v>19297</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>415414</v>
+      </c>
+      <c r="J17" s="6" t="n">
         <v>36242</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>40202</v>
       </c>
     </row>
     <row r="18">
@@ -1294,13 +2051,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
+        <v>135866</v>
+      </c>
+      <c r="D18" s="6" t="n">
         <v>14807</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="E18" s="6" t="n">
+        <v>17246</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>205870</v>
+      </c>
+      <c r="G18" s="6" t="n">
         <v>14188</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="H18" s="6" t="n">
+        <v>15806</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>368227</v>
+      </c>
+      <c r="J18" s="6" t="n">
         <v>31017</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>34817</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +2086,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
+        <v>226464</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>23291</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="E19" s="6" t="n">
+        <v>24861</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>280813</v>
+      </c>
+      <c r="G19" s="6" t="n">
         <v>20932</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="H19" s="6" t="n">
+        <v>22714</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>481747</v>
+      </c>
+      <c r="J19" s="6" t="n">
         <v>41976</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>44919</v>
       </c>
     </row>
     <row r="20">
@@ -1332,13 +2125,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="E20" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="G20" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="H20" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="J20" s="6" t="n">
         <v>125</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="21">
@@ -1349,13 +2160,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
+        <v>130335</v>
+      </c>
+      <c r="D21" s="6" t="n">
         <v>10653</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="E21" s="6" t="n">
+        <v>12928</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>157436</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>18996</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="H21" s="6" t="n">
+        <v>15324</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>287771</v>
+      </c>
+      <c r="J21" s="6" t="n">
         <v>29649</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>28251</v>
       </c>
     </row>
     <row r="22">
@@ -1366,13 +2195,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
+        <v>100437</v>
+      </c>
+      <c r="D22" s="6" t="n">
         <v>8060</v>
       </c>
-      <c r="D22" s="6" t="n">
+      <c r="E22" s="6" t="n">
+        <v>10248</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>122675</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>16009</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="H22" s="6" t="n">
+        <v>12368</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>242427</v>
+      </c>
+      <c r="J22" s="6" t="n">
         <v>25531</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>23853</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +2230,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
+        <v>165729</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>13910</v>
       </c>
-      <c r="D23" s="6" t="n">
+      <c r="E23" s="6" t="n">
+        <v>15968</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>195751</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>22426</v>
       </c>
-      <c r="E23" s="6" t="n">
+      <c r="H23" s="6" t="n">
+        <v>18320</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>337537</v>
+      </c>
+      <c r="J23" s="6" t="n">
         <v>34284</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>32302</v>
       </c>
     </row>
     <row r="24">
@@ -1404,12 +2269,30 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="E24" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="E24" s="6" t="n">
+      <c r="H24" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="K24" s="6" t="n">
         <v>82</v>
       </c>
     </row>
@@ -1421,13 +2304,31 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
+        <v>144333</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>13446</v>
       </c>
-      <c r="D25" s="6" t="n">
+      <c r="E25" s="6" t="n">
+        <v>11035</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>216915</v>
+      </c>
+      <c r="G25" s="6" t="n">
         <v>21763</v>
       </c>
-      <c r="E25" s="6" t="n">
+      <c r="H25" s="6" t="n">
+        <v>19101</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>361248</v>
+      </c>
+      <c r="J25" s="6" t="n">
         <v>35209</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <v>30135</v>
       </c>
     </row>
     <row r="26">
@@ -1438,13 +2339,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
+        <v>109024</v>
+      </c>
+      <c r="D26" s="6" t="n">
         <v>9944</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="E26" s="6" t="n">
+        <v>8104</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>162615</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>16073</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="H26" s="6" t="n">
+        <v>14799</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>295486</v>
+      </c>
+      <c r="J26" s="6" t="n">
         <v>29051</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>24731</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +2374,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
+        <v>194973</v>
+      </c>
+      <c r="D27" s="6" t="n">
         <v>17673</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="E27" s="6" t="n">
+        <v>15026</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>283112</v>
+      </c>
+      <c r="G27" s="6" t="n">
         <v>27149</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="H27" s="6" t="n">
+        <v>24969</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>434662</v>
+      </c>
+      <c r="J27" s="6" t="n">
         <v>42970</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>36039</v>
       </c>
     </row>
     <row r="28">
@@ -1476,13 +2413,31 @@
         </is>
       </c>
       <c r="C28" s="6" t="n">
+        <v>278</v>
+      </c>
+      <c r="D28" s="6" t="n">
         <v>261</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="E28" s="6" t="n">
+        <v>282</v>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>456</v>
+      </c>
+      <c r="G28" s="6" t="n">
         <v>399</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="H28" s="6" t="n">
+        <v>414</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>734</v>
+      </c>
+      <c r="J28" s="6" t="n">
         <v>660</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>696</v>
       </c>
     </row>
     <row r="29">
@@ -1493,13 +2448,31 @@
         </is>
       </c>
       <c r="C29" s="6" t="n">
+        <v>890698</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>88329</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="E29" s="6" t="n">
+        <v>90772</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>1262406</v>
+      </c>
+      <c r="G29" s="6" t="n">
         <v>110465</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="H29" s="6" t="n">
+        <v>112437</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>2153104</v>
+      </c>
+      <c r="J29" s="6" t="n">
         <v>198794</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>203209</v>
       </c>
     </row>
     <row r="30">
@@ -1510,13 +2483,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
+        <v>789667</v>
+      </c>
+      <c r="D30" s="6" t="n">
         <v>79036</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="E30" s="6" t="n">
+        <v>81777</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>1166565</v>
+      </c>
+      <c r="G30" s="6" t="n">
         <v>100736</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="H30" s="6" t="n">
+        <v>103743</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>2009774</v>
+      </c>
+      <c r="J30" s="6" t="n">
         <v>185818</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>191351</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +2518,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
+        <v>1003002</v>
+      </c>
+      <c r="D31" s="6" t="n">
         <v>98740</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="E31" s="6" t="n">
+        <v>100962</v>
+      </c>
+      <c r="F31" s="6" t="n">
+        <v>1365559</v>
+      </c>
+      <c r="G31" s="6" t="n">
         <v>120250</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="H31" s="6" t="n">
+        <v>121456</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>2306498</v>
+      </c>
+      <c r="J31" s="6" t="n">
         <v>212990</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>217722</v>
       </c>
     </row>
     <row r="32">
@@ -1544,10 +2553,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
